--- a/Excel File Template/Members.xlsx
+++ b/Excel File Template/Members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software design\BookStoreManagement\Excel File Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC4F8E-16DF-4065-9322-71648BFCEE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD991D-3F73-41E5-9E29-6498F92E8137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD7E8DDE-569B-420B-84A4-11A0C553B41B}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>35255235</t>
   </si>
   <si>
-    <t>532535354</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>53532523</t>
   </si>
   <si>
-    <t>352353535</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>53535235</t>
   </si>
   <si>
-    <t>453525255</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
@@ -227,13 +218,22 @@
     <t>41242141</t>
   </si>
   <si>
-    <t>421424432</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
     <t>19851212</t>
+  </si>
+  <si>
+    <t>AriBank</t>
+  </si>
+  <si>
+    <t>TPBank</t>
+  </si>
+  <si>
+    <t>VietcomBank</t>
+  </si>
+  <si>
+    <t>BIDV</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F03422-8461-4F32-8482-18A8EA83FE2B}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -703,142 +703,142 @@
         <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
